--- a/demoData/toy cement/units/cementUnits.xlsx
+++ b/demoData/toy cement/units/cementUnits.xlsx
@@ -8,25 +8,27 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Tanzer/GitHub/BlackBlox/demoData/toy cement/units/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87B63D5F-8B7B-2D4A-8C2E-B038D82A436E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3F433E4-051F-2F40-9795-7C3F21BBD8E5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1160" yWindow="1260" windowWidth="27640" windowHeight="16540" activeTab="5" xr2:uid="{94C69905-85FA-FD47-AACA-486307E1FA4E}"/>
+    <workbookView xWindow="1120" yWindow="1460" windowWidth="27640" windowHeight="16540" activeTab="1" xr2:uid="{94C69905-85FA-FD47-AACA-486307E1FA4E}"/>
   </bookViews>
   <sheets>
     <sheet name="c meal mixer" sheetId="1" r:id="rId1"/>
-    <sheet name="c clinker kiln" sheetId="3" r:id="rId2"/>
-    <sheet name="c cement blender" sheetId="4" r:id="rId3"/>
-    <sheet name="var meal mixer" sheetId="2" r:id="rId4"/>
-    <sheet name="var clinker kiln" sheetId="5" r:id="rId5"/>
+    <sheet name="var meal mixer" sheetId="2" r:id="rId2"/>
+    <sheet name="c clinker kiln" sheetId="3" r:id="rId3"/>
+    <sheet name="var clinker kiln" sheetId="5" r:id="rId4"/>
+    <sheet name="c cement blender" sheetId="4" r:id="rId5"/>
     <sheet name="var cement blender" sheetId="6" r:id="rId6"/>
+    <sheet name="c mystery factory" sheetId="7" r:id="rId7"/>
+    <sheet name="var mystery factory" sheetId="8" r:id="rId8"/>
   </sheets>
   <definedNames>
-    <definedName name="CementBlender" localSheetId="2">'c cement blender'!$A$1:$F$4</definedName>
+    <definedName name="CementBlender" localSheetId="4">'c cement blender'!$A$1:$F$4</definedName>
     <definedName name="CementBlenderVar" localSheetId="5">'var cement blender'!$A$1:$C$6</definedName>
-    <definedName name="ClinkerKiln" localSheetId="1">'c clinker kiln'!$A$1:$F$8</definedName>
-    <definedName name="ClinkerKilnVar" localSheetId="4">'var clinker kiln'!$A$1:$G$6</definedName>
-    <definedName name="MealMixer" localSheetId="0">'c meal mixer'!$A$1:$F$5</definedName>
-    <definedName name="MealMixerVar" localSheetId="3">'var meal mixer'!$A$1:$E$6</definedName>
+    <definedName name="ClinkerKiln" localSheetId="2">'c clinker kiln'!$A$1:$F$8</definedName>
+    <definedName name="ClinkerKilnVar" localSheetId="3">'var clinker kiln'!$A$1:$G$6</definedName>
+    <definedName name="MealMixer" localSheetId="0">'c meal mixer'!$A$1:$F$4</definedName>
+    <definedName name="MealMixerVar" localSheetId="1">'var meal mixer'!$A$1:$D$6</definedName>
   </definedNames>
   <calcPr calcId="179021"/>
   <extLst>
@@ -112,7 +114,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="67">
   <si>
     <t>KnownQty</t>
   </si>
@@ -150,9 +152,6 @@
     <t>clay</t>
   </si>
   <si>
-    <t>flyAsh</t>
-  </si>
-  <si>
     <t>electricity</t>
   </si>
   <si>
@@ -219,15 +218,6 @@
     <t>default</t>
   </si>
   <si>
-    <t>EU-bat</t>
-  </si>
-  <si>
-    <t>EU-typ</t>
-  </si>
-  <si>
-    <t>EU-old</t>
-  </si>
-  <si>
     <t>fuelType</t>
   </si>
   <si>
@@ -252,9 +242,6 @@
     <t>Clay_fract</t>
   </si>
   <si>
-    <t>flyAsh_fract</t>
-  </si>
-  <si>
     <t>Meal_CaCO3</t>
   </si>
   <si>
@@ -283,6 +270,51 @@
   </si>
   <si>
     <t>(gj/t)</t>
+  </si>
+  <si>
+    <t>outflows</t>
+  </si>
+  <si>
+    <t>ratio</t>
+  </si>
+  <si>
+    <t>energyEff</t>
+  </si>
+  <si>
+    <t>inflows</t>
+  </si>
+  <si>
+    <t>secret ingredients</t>
+  </si>
+  <si>
+    <t>waste</t>
+  </si>
+  <si>
+    <t>materialEff</t>
+  </si>
+  <si>
+    <t>remainder</t>
+  </si>
+  <si>
+    <t>CO2eff</t>
+  </si>
+  <si>
+    <t>energy</t>
+  </si>
+  <si>
+    <t>EU-2010</t>
+  </si>
+  <si>
+    <t>EU-2000</t>
+  </si>
+  <si>
+    <t>EU-1990</t>
+  </si>
+  <si>
+    <t>natural gas</t>
+  </si>
+  <si>
+    <t>EU-BECCS</t>
   </si>
 </sst>
 </file>
@@ -342,19 +374,19 @@
 </file>
 
 <file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="MealMixerVar" connectionId="6" xr16:uid="{429E42DC-1607-0349-AD27-8FB369017594}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="ClinkerKiln" connectionId="3" xr16:uid="{83F778A0-9E26-5B4D-B670-15D4CB456D74}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/queryTables/queryTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="ClinkerKilnVar" connectionId="4" xr16:uid="{5C346571-3C94-EE42-943D-F0842BD663C7}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable5.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="CementBlender" connectionId="1" xr16:uid="{A4900E21-A24A-AB44-B82A-CF871032009F}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="MealMixerVar" connectionId="6" xr16:uid="{429E42DC-1607-0349-AD27-8FB369017594}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="ClinkerKilnVar" connectionId="4" xr16:uid="{5C346571-3C94-EE42-943D-F0842BD663C7}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable6.xml><?xml version="1.0" encoding="utf-8"?>
@@ -658,10 +690,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FCE611D-9E66-FC4D-9411-2A473C140578}">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="A4" sqref="A4:XFD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -711,7 +743,7 @@
         <v>10</v>
       </c>
       <c r="F2" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -731,7 +763,7 @@
         <v>10</v>
       </c>
       <c r="F3" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
@@ -751,27 +783,7 @@
         <v>10</v>
       </c>
       <c r="F4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" t="s">
         <v>13</v>
-      </c>
-      <c r="D5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E5" t="s">
-        <v>10</v>
-      </c>
-      <c r="F5" t="s">
-        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -780,6 +792,125 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B4FCCF6-DE04-5B46-B2A7-E15C68CE5662}">
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B3">
+        <v>0.2</v>
+      </c>
+      <c r="C3">
+        <v>0.67</v>
+      </c>
+      <c r="D3">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>62</v>
+      </c>
+      <c r="B4">
+        <v>0.1</v>
+      </c>
+      <c r="C4">
+        <v>0.65</v>
+      </c>
+      <c r="D4">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>63</v>
+      </c>
+      <c r="B5">
+        <v>0.2</v>
+      </c>
+      <c r="C5">
+        <v>0.67</v>
+      </c>
+      <c r="D5">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>64</v>
+      </c>
+      <c r="B6">
+        <v>0.4</v>
+      </c>
+      <c r="C6">
+        <v>0.75</v>
+      </c>
+      <c r="D6">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>66</v>
+      </c>
+      <c r="B7">
+        <v>0.1</v>
+      </c>
+      <c r="C7">
+        <v>0.65</v>
+      </c>
+      <c r="D7">
+        <v>0.35</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBA23163-3E52-184E-8C92-A87AA50554C7}">
   <dimension ref="A1:H10"/>
   <sheetViews>
@@ -816,50 +947,50 @@
         <v>5</v>
       </c>
       <c r="G1" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="H1" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B2" t="s">
         <v>7</v>
       </c>
       <c r="C2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" t="s">
         <v>16</v>
-      </c>
-      <c r="D2" t="s">
-        <v>17</v>
       </c>
       <c r="E2" t="s">
         <v>10</v>
       </c>
       <c r="F2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" t="s">
         <v>16</v>
-      </c>
-      <c r="B3" t="s">
-        <v>17</v>
       </c>
       <c r="C3" t="s">
         <v>8</v>
       </c>
       <c r="D3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" t="s">
         <v>19</v>
-      </c>
-      <c r="F3" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
@@ -867,7 +998,7 @@
         <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C4" t="s">
         <v>6</v>
@@ -879,27 +1010,27 @@
         <v>10</v>
       </c>
       <c r="F4" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B5" t="s">
         <v>7</v>
       </c>
       <c r="C5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E5" t="s">
         <v>10</v>
       </c>
       <c r="F5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
@@ -907,50 +1038,50 @@
         <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D6" t="s">
         <v>7</v>
       </c>
       <c r="E6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F6" t="s">
         <v>19</v>
-      </c>
-      <c r="F6" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B7" t="s">
         <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F7" t="s">
         <v>25</v>
-      </c>
-      <c r="F7" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B8" t="s">
         <v>7</v>
       </c>
       <c r="C8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D8" t="s">
         <v>9</v>
@@ -959,30 +1090,30 @@
         <v>10</v>
       </c>
       <c r="F8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B9" t="s">
         <v>7</v>
       </c>
       <c r="C9" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="D9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E9" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="F9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H9" t="s">
         <v>7</v>
@@ -993,25 +1124,25 @@
         <v>6</v>
       </c>
       <c r="B10" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="C10" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="D10" t="s">
         <v>7</v>
       </c>
       <c r="E10" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="F10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G10" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="H10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -1019,7 +1150,197 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BE63004-2FFA-F844-A46D-0BECDBA775CA}">
+  <dimension ref="A1:G7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I27" sqref="I27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B3">
+        <v>3.6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D3">
+        <v>0.75</v>
+      </c>
+      <c r="E3">
+        <f>1/'var meal mixer'!C3</f>
+        <v>1.4925373134328357</v>
+      </c>
+      <c r="F3">
+        <v>0.8</v>
+      </c>
+      <c r="G3">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>64</v>
+      </c>
+      <c r="B4">
+        <v>3.6</v>
+      </c>
+      <c r="C4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D4">
+        <v>0.75</v>
+      </c>
+      <c r="E4">
+        <f>1/'var meal mixer'!C4</f>
+        <v>1.5384615384615383</v>
+      </c>
+      <c r="F4">
+        <v>0.8</v>
+      </c>
+      <c r="G4">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>62</v>
+      </c>
+      <c r="B5">
+        <v>3</v>
+      </c>
+      <c r="C5" t="s">
+        <v>65</v>
+      </c>
+      <c r="D5">
+        <v>0.65</v>
+      </c>
+      <c r="E5">
+        <f>1/'var meal mixer'!C5</f>
+        <v>1.4925373134328357</v>
+      </c>
+      <c r="F5">
+        <v>0.8</v>
+      </c>
+      <c r="G5">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>63</v>
+      </c>
+      <c r="B6">
+        <v>3.2</v>
+      </c>
+      <c r="C6" t="s">
+        <v>38</v>
+      </c>
+      <c r="D6">
+        <v>0.67</v>
+      </c>
+      <c r="E6">
+        <f>1/'var meal mixer'!C6</f>
+        <v>1.3333333333333333</v>
+      </c>
+      <c r="F6">
+        <v>0.8</v>
+      </c>
+      <c r="G6">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>66</v>
+      </c>
+      <c r="B7">
+        <v>3</v>
+      </c>
+      <c r="C7" t="s">
+        <v>39</v>
+      </c>
+      <c r="D7">
+        <v>0.65</v>
+      </c>
+      <c r="E7">
+        <f>1/'var meal mixer'!C7</f>
+        <v>1.5384615384615383</v>
+      </c>
+      <c r="F7">
+        <v>0.8</v>
+      </c>
+      <c r="G7">
+        <v>0.1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF11C76E-0B4B-024F-8382-DD39B8BF8281}">
   <dimension ref="A1:F4"/>
   <sheetViews>
@@ -1057,13 +1378,13 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B2" t="s">
         <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D2" t="s">
         <v>9</v>
@@ -1072,38 +1393,38 @@
         <v>10</v>
       </c>
       <c r="F2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B3" t="s">
         <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D3" t="s">
         <v>9</v>
       </c>
       <c r="E3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B4" t="s">
         <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D4" t="s">
         <v>9</v>
@@ -1112,7 +1433,7 @@
         <v>10</v>
       </c>
       <c r="F4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -1120,302 +1441,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B4FCCF6-DE04-5B46-B2A7-E15C68CE5662}">
-  <dimension ref="A1:E6"/>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6899E09-A186-5449-A261-122D86B78C4C}">
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.1640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.1640625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D1" t="s">
-        <v>45</v>
-      </c>
-      <c r="E1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B2" t="s">
-        <v>56</v>
-      </c>
-      <c r="C2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>34</v>
-      </c>
-      <c r="B3">
-        <v>0.2</v>
-      </c>
-      <c r="C3">
-        <v>0.67</v>
-      </c>
-      <c r="D3">
-        <v>0.33</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>35</v>
-      </c>
-      <c r="B4">
-        <v>0.1</v>
-      </c>
-      <c r="C4">
-        <v>0.65</v>
-      </c>
-      <c r="D4">
-        <v>0.25</v>
-      </c>
-      <c r="E4">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>36</v>
-      </c>
-      <c r="B5">
-        <v>0.2</v>
-      </c>
-      <c r="C5">
-        <v>0.67</v>
-      </c>
-      <c r="D5">
-        <v>0.33</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>37</v>
-      </c>
-      <c r="B6">
-        <v>0.4</v>
-      </c>
-      <c r="C6">
-        <v>0.75</v>
-      </c>
-      <c r="D6">
-        <v>0.25</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BE63004-2FFA-F844-A46D-0BECDBA775CA}">
-  <dimension ref="A1:G6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.1640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E1" t="s">
-        <v>47</v>
-      </c>
-      <c r="F1" t="s">
-        <v>26</v>
-      </c>
-      <c r="G1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B2" t="s">
-        <v>55</v>
-      </c>
-      <c r="C2" t="s">
-        <v>39</v>
-      </c>
-      <c r="D2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E2" t="s">
-        <v>33</v>
-      </c>
-      <c r="F2" t="s">
-        <v>40</v>
-      </c>
-      <c r="G2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>34</v>
-      </c>
-      <c r="B3">
-        <v>3.6</v>
-      </c>
-      <c r="C3" t="s">
-        <v>42</v>
-      </c>
-      <c r="D3">
-        <v>0.75</v>
-      </c>
-      <c r="E3">
-        <f>1/'var meal mixer'!C3</f>
-        <v>1.4925373134328357</v>
-      </c>
-      <c r="F3">
-        <v>0.8</v>
-      </c>
-      <c r="G3">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>37</v>
-      </c>
-      <c r="B4">
-        <v>3.6</v>
-      </c>
-      <c r="C4" t="s">
-        <v>42</v>
-      </c>
-      <c r="D4">
-        <v>0.75</v>
-      </c>
-      <c r="E4">
-        <f>1/'var meal mixer'!C4</f>
-        <v>1.5384615384615383</v>
-      </c>
-      <c r="F4">
-        <v>0.8</v>
-      </c>
-      <c r="G4">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>35</v>
-      </c>
-      <c r="B5">
-        <v>3</v>
-      </c>
-      <c r="C5" t="s">
-        <v>43</v>
-      </c>
-      <c r="D5">
-        <v>0.65</v>
-      </c>
-      <c r="E5">
-        <f>1/'var meal mixer'!C5</f>
-        <v>1.4925373134328357</v>
-      </c>
-      <c r="F5">
-        <v>0.8</v>
-      </c>
-      <c r="G5">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>36</v>
-      </c>
-      <c r="B6">
-        <v>3.2</v>
-      </c>
-      <c r="C6" t="s">
-        <v>42</v>
-      </c>
-      <c r="D6">
-        <v>0.67</v>
-      </c>
-      <c r="E6">
-        <f>1/'var meal mixer'!C6</f>
-        <v>1.3333333333333333</v>
-      </c>
-      <c r="F6">
-        <v>0.8</v>
-      </c>
-      <c r="G6">
-        <v>0.1</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6899E09-A186-5449-A261-122D86B78C4C}">
-  <dimension ref="A1:C6"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1427,29 +1458,29 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C2" t="s">
         <v>32</v>
-      </c>
-      <c r="B2" t="s">
-        <v>56</v>
-      </c>
-      <c r="C2" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B3">
         <v>0.15</v>
@@ -1460,7 +1491,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>35</v>
+        <v>62</v>
       </c>
       <c r="B4">
         <v>0.1</v>
@@ -1471,7 +1502,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>36</v>
+        <v>63</v>
       </c>
       <c r="B5">
         <v>0.15</v>
@@ -1482,13 +1513,252 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>37</v>
+        <v>64</v>
       </c>
       <c r="B6">
         <v>0.2</v>
       </c>
       <c r="C6">
         <v>0.95</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>66</v>
+      </c>
+      <c r="B7">
+        <v>0.1</v>
+      </c>
+      <c r="C7">
+        <v>0.75</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88C49A0E-8656-A343-A426-DD0CE754E6D2}">
+  <dimension ref="A1:F5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E2" t="s">
+        <v>53</v>
+      </c>
+      <c r="F2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" t="s">
+        <v>52</v>
+      </c>
+      <c r="E3" t="s">
+        <v>53</v>
+      </c>
+      <c r="F3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" t="s">
+        <v>52</v>
+      </c>
+      <c r="E4" t="s">
+        <v>53</v>
+      </c>
+      <c r="F4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>56</v>
+      </c>
+      <c r="B5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C5" t="s">
+        <v>57</v>
+      </c>
+      <c r="D5" t="s">
+        <v>52</v>
+      </c>
+      <c r="E5" t="s">
+        <v>59</v>
+      </c>
+      <c r="F5" t="s">
+        <v>58</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4F5B2D7-3645-3F43-8E8C-42CF11763638}">
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B3">
+        <v>5</v>
+      </c>
+      <c r="C3">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="D3">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>64</v>
+      </c>
+      <c r="B4">
+        <v>6</v>
+      </c>
+      <c r="C4">
+        <v>1.3</v>
+      </c>
+      <c r="D4">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>63</v>
+      </c>
+      <c r="B5">
+        <v>5</v>
+      </c>
+      <c r="C5">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="D5">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>62</v>
+      </c>
+      <c r="B6">
+        <v>4</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>66</v>
+      </c>
+      <c r="B7">
+        <v>4</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>0.9</v>
       </c>
     </row>
   </sheetData>
